--- a/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,42</t>
+          <t>5,78; 12,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,82</t>
+          <t>5,59; 11,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,52</t>
+          <t>5,02; 10,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,25</t>
+          <t>5,62; 12,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,27</t>
+          <t>3,66; 8,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,84</t>
+          <t>4,51; 10,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,67</t>
+          <t>4,13; 9,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,32</t>
+          <t>5,32; 11,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,06</t>
+          <t>5,48; 9,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,22</t>
+          <t>5,86; 10,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,39</t>
+          <t>5,25; 8,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,95</t>
+          <t>6,05; 10,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,34</t>
+          <t>3,19; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,65</t>
+          <t>5,31; 10,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,39</t>
+          <t>3,2; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,07</t>
+          <t>5,21; 10,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,94</t>
+          <t>3,43; 8,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,28</t>
+          <t>4,5; 9,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,38</t>
+          <t>3,9; 8,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,75</t>
+          <t>4,83; 9,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,7</t>
+          <t>3,72; 7,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,03</t>
+          <t>5,56; 9,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,91</t>
+          <t>4,18; 7,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,68</t>
+          <t>5,47; 8,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,75</t>
+          <t>4,46; 12,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,19</t>
+          <t>5,6; 13,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,12</t>
+          <t>3,41; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,19</t>
+          <t>4,34; 15,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,51</t>
+          <t>4,89; 13,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,01</t>
+          <t>8,49; 17,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 16,38</t>
+          <t>5,46; 13,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,78</t>
+          <t>3,95; 14,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,53</t>
+          <t>5,38; 10,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,39</t>
+          <t>7,9; 13,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,25</t>
+          <t>5,22; 10,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,99</t>
+          <t>5,29; 12,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>8,45%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,63%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,34</t>
+          <t>5,62; 11,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,65</t>
+          <t>6,51; 12,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,39</t>
+          <t>4,82; 10,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,07</t>
+          <t>5,85; 12,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,94</t>
+          <t>4,21; 9,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,28</t>
+          <t>6,06; 12,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,38</t>
+          <t>8,24; 15,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,75</t>
+          <t>5,42; 12,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,7</t>
+          <t>5,53; 9,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,03</t>
+          <t>6,89; 11,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,91</t>
+          <t>6,96; 11,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,68</t>
+          <t>6,52; 11,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,42</t>
+          <t>4,16; 10,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,82</t>
+          <t>3,65; 10,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,52</t>
+          <t>4,76; 11,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,25</t>
+          <t>4,51; 11,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,27</t>
+          <t>5,14; 13,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,84</t>
+          <t>5,83; 13,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,67</t>
+          <t>3,93; 10,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,32</t>
+          <t>5,49; 12,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,06</t>
+          <t>5,29; 10,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,22</t>
+          <t>5,58; 10,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,39</t>
+          <t>4,94; 9,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,95</t>
+          <t>5,55; 10,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,07</t>
+          <t>1,91; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,27</t>
+          <t>5,36; 12,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,05</t>
+          <t>2,3; 7,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,73</t>
+          <t>4,77; 11,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,15</t>
+          <t>2,33; 6,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,37</t>
+          <t>3,04; 8,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,63</t>
+          <t>2,53; 8,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,23</t>
+          <t>3,63; 8,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,59</t>
+          <t>2,6; 5,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,0</t>
+          <t>4,66; 9,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,36</t>
+          <t>3,09; 7,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,79</t>
+          <t>5,05; 8,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 8,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 10,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 8,16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 9,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 8,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 10,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 9,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 9,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 7,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 9,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 8,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 8,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,34</t>
+          <t>4,43; 12,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,85</t>
+          <t>5,61; 13,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,24</t>
+          <t>3,47; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,97</t>
+          <t>4,61; 16,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,42</t>
+          <t>5,38; 13,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 17,16</t>
+          <t>8,34; 17,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 13,46</t>
+          <t>5,91; 14,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 14,36</t>
+          <t>4,54; 15,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,97</t>
+          <t>5,62; 11,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 13,99</t>
+          <t>7,99; 13,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,75</t>
+          <t>5,21; 10,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,85</t>
+          <t>5,29; 12,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,2</t>
+          <t>5,63; 11,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,82</t>
+          <t>6,56; 12,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,08</t>
+          <t>4,98; 10,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,58</t>
+          <t>5,77; 12,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,0</t>
+          <t>4,23; 9,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,05</t>
+          <t>5,56; 11,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,05</t>
+          <t>7,92; 14,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,63</t>
+          <t>5,58; 13,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,15</t>
+          <t>5,46; 9,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,45</t>
+          <t>6,99; 11,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,15</t>
+          <t>7,04; 11,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,49</t>
+          <t>6,34; 11,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,93</t>
+          <t>4,04; 11,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,67</t>
+          <t>3,81; 10,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,31</t>
+          <t>4,55; 10,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,05</t>
+          <t>4,46; 10,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,54</t>
+          <t>4,69; 13,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 13,33</t>
+          <t>5,27; 12,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,13</t>
+          <t>3,89; 9,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,12</t>
+          <t>5,26; 12,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,97</t>
+          <t>5,46; 10,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,69</t>
+          <t>5,29; 10,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,41</t>
+          <t>4,93; 9,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,29</t>
+          <t>5,55; 10,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,51</t>
+          <t>2,15; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,39</t>
+          <t>5,17; 12,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,71</t>
+          <t>2,42; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,23</t>
+          <t>5,13; 11,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,85</t>
+          <t>2,13; 7,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,83</t>
+          <t>3,13; 8,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,19</t>
+          <t>2,48; 8,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,47</t>
+          <t>3,58; 8,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,51</t>
+          <t>2,62; 5,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,33</t>
+          <t>4,94; 9,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,19</t>
+          <t>3,24; 7,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,83</t>
+          <t>5,01; 8,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,07</t>
+          <t>5,21; 8,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,23</t>
+          <t>6,86; 10,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,16</t>
+          <t>5,16; 8,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,96</t>
+          <t>6,21; 9,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,23</t>
+          <t>5,01; 8,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,56</t>
+          <t>6,94; 10,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,75</t>
+          <t>6,49; 9,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,21</t>
+          <t>5,79; 9,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,56</t>
+          <t>5,45; 7,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 9,98</t>
+          <t>7,42; 9,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,31</t>
+          <t>6,17; 8,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,83</t>
+          <t>6,38; 8,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,49 +656,49 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>7,68%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>9,07%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5,96%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,6%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>8,11%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>10,66%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 12,38</t>
+          <t>4,75; 13,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 13,71</t>
+          <t>8,3; 16,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,62</t>
+          <t>5,8; 14,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 16,21</t>
+          <t>4,14; 14,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 13,86</t>
+          <t>4,42; 12,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,75</t>
+          <t>5,37; 13,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 14,16</t>
+          <t>3,16; 10,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,38</t>
+          <t>4,54; 16,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,15</t>
+          <t>5,61; 11,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,96</t>
+          <t>7,91; 14,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,62</t>
+          <t>5,26; 10,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,99</t>
+          <t>5,27; 13,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>9,34%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>7,31%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>8,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,16</t>
+          <t>4,34; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,72</t>
+          <t>5,7; 11,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,44</t>
+          <t>8,22; 14,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,65</t>
+          <t>5,4; 12,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,32</t>
+          <t>5,84; 11,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,87</t>
+          <t>6,69; 12,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,88</t>
+          <t>4,7; 10,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,01</t>
+          <t>6,01; 13,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,21</t>
+          <t>5,29; 9,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,13</t>
+          <t>6,84; 11,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,13</t>
+          <t>7,06; 11,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,36</t>
+          <t>6,43; 11,14</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>7,04%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>6,45%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>7,45%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,57</t>
+          <t>5,08; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,89</t>
+          <t>5,67; 13,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,96</t>
+          <t>3,77; 9,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,44</t>
+          <t>5,53; 12,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,4</t>
+          <t>3,84; 11,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,97</t>
+          <t>3,64; 10,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,94</t>
+          <t>4,64; 11,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,54</t>
+          <t>4,29; 10,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,54</t>
+          <t>5,19; 10,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,65</t>
+          <t>5,25; 10,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,44</t>
+          <t>5,03; 9,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,33</t>
+          <t>5,55; 10,46</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3,78%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>8,33%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>4,69%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,51</t>
+          <t>2,14; 6,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,46</t>
+          <t>2,81; 8,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,02</t>
+          <t>2,69; 8,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,0</t>
+          <t>3,11; 7,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 7,18</t>
+          <t>2,18; 6,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,76</t>
+          <t>5,43; 12,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,1</t>
+          <t>2,39; 8,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,7</t>
+          <t>4,88; 11,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,69</t>
+          <t>2,61; 5,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,22</t>
+          <t>4,98; 9,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,06</t>
+          <t>3,1; 6,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,94</t>
+          <t>4,58; 8,53</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>6,56%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>8,44%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>6,51%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,14</t>
+          <t>5,04; 8,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,38</t>
+          <t>7,04; 10,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,21</t>
+          <t>6,25; 9,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,88</t>
+          <t>5,52; 8,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,14</t>
+          <t>5,14; 8,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,45</t>
+          <t>6,82; 10,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,77</t>
+          <t>5,06; 8,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,14</t>
+          <t>6,08; 9,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,57</t>
+          <t>5,44; 7,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 9,86</t>
+          <t>7,47; 10,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,32</t>
+          <t>6,07; 8,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 8,82</t>
+          <t>6,25; 8,73</t>
         </is>
       </c>
     </row>
